--- a/iselUssSyncV2/OutputWSL/20220426_1444_D50L474W90Q15U0.26H72G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1444_D50L474W90Q15U0.26H72G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>73.148769841269868</v>
+        <v>73.149700608290843</v>
       </c>
       <c r="F2" s="0">
-        <v>71.946547619047664</v>
+        <v>71.947478386068596</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>73.766547619047657</v>
+        <v>73.768822827321102</v>
       </c>
       <c r="F3" s="0">
-        <v>73.642500000000013</v>
+        <v>73.644775208273472</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>73.016785714285703</v>
+        <v>73.019536647925491</v>
       </c>
       <c r="F4" s="0">
-        <v>75.318888888888935</v>
+        <v>75.321639822528695</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>72.318007968127517</v>
+        <v>72.320814058331464</v>
       </c>
       <c r="F5" s="0">
-        <v>75.704980079681278</v>
+        <v>75.707786169885182</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>71.126175298804739</v>
+        <v>71.12902965100244</v>
       </c>
       <c r="F6" s="0">
-        <v>76.441713147410354</v>
+        <v>76.444567499607984</v>
       </c>
     </row>
     <row r="7">
@@ -222,7 +222,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>68.929841269841305</v>
+        <v>68.9327369894621</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>64.211746031746031</v>
+        <v>64.21467622421946</v>
       </c>
       <c r="F8" s="0">
-        <v>74.403690476190462</v>
+        <v>74.406620668663891</v>
       </c>
     </row>
     <row r="9">
@@ -260,7 +260,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>61.545952380952372</v>
+        <v>61.54889443208711</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -278,10 +278,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>58.381314741035865</v>
+        <v>58.38426754770061</v>
       </c>
       <c r="F10" s="0">
-        <v>33.488525896414338</v>
+        <v>33.491478703079103</v>
       </c>
     </row>
     <row r="11">
@@ -298,10 +298,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>55.113147410358586</v>
+        <v>55.116109869422054</v>
       </c>
       <c r="F11" s="0">
-        <v>33.892031872509961</v>
+        <v>33.89499433157345</v>
       </c>
     </row>
     <row r="12">
@@ -318,10 +318,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>53.485737051792839</v>
+        <v>53.488703923381451</v>
       </c>
       <c r="F12" s="0">
-        <v>34.032390438247013</v>
+        <v>34.035357309835639</v>
       </c>
     </row>
     <row r="13">
@@ -338,10 +338,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>51.347011952191238</v>
+        <v>51.349982960522183</v>
       </c>
       <c r="F13" s="0">
-        <v>34.432191235059769</v>
+        <v>34.4351622433907</v>
       </c>
     </row>
     <row r="14">
@@ -358,10 +358,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>50.080634920634921</v>
+        <v>50.083609789925362</v>
       </c>
       <c r="F14" s="0">
-        <v>35.763095238095232</v>
+        <v>35.766070107385673</v>
       </c>
     </row>
     <row r="15">
@@ -378,10 +378,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>48.448525896414338</v>
+        <v>48.45150435088145</v>
       </c>
       <c r="F15" s="0">
-        <v>38.37856573705178</v>
+        <v>38.381544191518898</v>
       </c>
     </row>
     <row r="16">
@@ -398,10 +398,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>45.780436507936486</v>
+        <v>45.783421305408481</v>
       </c>
       <c r="F16" s="0">
-        <v>40.387539682539689</v>
+        <v>40.390524480011678</v>
       </c>
     </row>
     <row r="17">
@@ -418,10 +418,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>42.944940239043817</v>
+        <v>42.947930276389414</v>
       </c>
       <c r="F17" s="0">
-        <v>42.084780876494037</v>
+        <v>42.08777091383962</v>
       </c>
     </row>
     <row r="18">
@@ -438,10 +438,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>41.251872509960165</v>
+        <v>41.254866684048089</v>
       </c>
       <c r="F18" s="0">
-        <v>43.702470119521927</v>
+        <v>43.705464293609808</v>
       </c>
     </row>
     <row r="19">
@@ -458,10 +458,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>38.503545816733066</v>
+        <v>38.50654495491176</v>
       </c>
       <c r="F19" s="0">
-        <v>45.489561752988038</v>
+        <v>45.492560891166733</v>
       </c>
     </row>
     <row r="20">
@@ -478,10 +478,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>43.002868525896396</v>
+        <v>43.005867664075119</v>
       </c>
       <c r="F20" s="0">
-        <v>45.978486055776891</v>
+        <v>45.981485193955571</v>
       </c>
     </row>
     <row r="21">
@@ -498,10 +498,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>43.625079365079372</v>
+        <v>43.62807160868752</v>
       </c>
       <c r="F21" s="0">
-        <v>46.252896825396824</v>
+        <v>46.255889069004994</v>
       </c>
     </row>
     <row r="22">
@@ -518,10 +518,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>42.540476190476184</v>
+        <v>42.543454644943289</v>
       </c>
       <c r="F22" s="0">
-        <v>46.165436507936512</v>
+        <v>46.168414962403617</v>
       </c>
     </row>
     <row r="23">
@@ -538,10 +538,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>45.491547619047616</v>
+        <v>45.494505389803138</v>
       </c>
       <c r="F23" s="0">
-        <v>46.804841269841283</v>
+        <v>46.807799040596812</v>
       </c>
     </row>
     <row r="24">
@@ -558,10 +558,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>53.972788844621498</v>
+        <v>53.975684564242322</v>
       </c>
       <c r="F24" s="0">
-        <v>46.873864541832681</v>
+        <v>46.876760261453455</v>
       </c>
     </row>
     <row r="25">
@@ -578,10 +578,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>42.687131474103573</v>
+        <v>42.689937564307556</v>
       </c>
       <c r="F25" s="0">
-        <v>46.75749003984064</v>
+        <v>46.760296130044594</v>
       </c>
     </row>
     <row r="26">
@@ -598,10 +598,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>45.410039682539676</v>
+        <v>45.412728565044702</v>
       </c>
       <c r="F26" s="0">
-        <v>46.846309523809516</v>
+        <v>46.848998406314543</v>
       </c>
     </row>
     <row r="27">
@@ -618,10 +618,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>46.66206349206351</v>
+        <v>46.664607588587486</v>
       </c>
       <c r="F27" s="0">
-        <v>46.830714285714301</v>
+        <v>46.833258382238277</v>
       </c>
     </row>
     <row r="28">
@@ -638,10 +638,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>49.279601593625515</v>
+        <v>49.281973325886341</v>
       </c>
       <c r="F28" s="0">
-        <v>46.668007968127483</v>
+        <v>46.670379700388345</v>
       </c>
     </row>
     <row r="29">
@@ -658,10 +658,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>43.913888888888906</v>
+        <v>43.916060678604481</v>
       </c>
       <c r="F29" s="0">
-        <v>46.396626984126982</v>
+        <v>46.398798773842572</v>
       </c>
     </row>
     <row r="30">
@@ -678,10 +678,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>47.166215139442222</v>
+        <v>47.167904309221022</v>
       </c>
       <c r="F30" s="0">
-        <v>46.128804780876493</v>
+        <v>46.130493950655293</v>
       </c>
     </row>
   </sheetData>
